--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T08:26:49+00:00</t>
+    <t>2022-09-16T09:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T09:34:57+00:00</t>
+    <t>2022-09-16T10:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:00:28+00:00</t>
+    <t>2022-09-16T10:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:16:44+00:00</t>
+    <t>2022-09-16T10:20:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:20:04+00:00</t>
+    <t>2022-09-16T10:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:34:10+00:00</t>
+    <t>2022-09-16T10:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="315">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:56:00+00:00</t>
+    <t>2022-09-16T13:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -877,6 +877,12 @@
   <si>
     <t>Ratio
 RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>薬剤の投与量速度</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量の速度</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -904,7 +910,7 @@
 </t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
+    <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
@@ -924,6 +930,29 @@
     <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与速度(量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
@@ -961,16 +990,6 @@
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -1283,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5894,16 +5913,16 @@
         <v>278</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -5940,7 +5959,7 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
@@ -5965,10 +5984,10 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
@@ -5976,7 +5995,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
@@ -5998,19 +6017,19 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6068,23 +6087,25 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6105,19 +6126,19 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6166,7 +6187,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6175,21 +6196,21 @@
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>122</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6212,19 +6233,19 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6273,7 +6294,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6282,21 +6303,21 @@
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>306</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6319,19 +6340,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6380,7 +6401,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6389,16 +6410,123 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:17:21+00:00</t>
+    <t>2022-09-16T14:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:04:42+00:00</t>
+    <t>2022-09-16T14:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:54:21+00:00</t>
+    <t>2022-09-17T07:20:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:20:02+00:00</t>
+    <t>2022-09-17T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:33:19+00:00</t>
+    <t>2022-09-17T08:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:22:44+00:00</t>
+    <t>2022-09-17T08:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:55:39+00:00</t>
+    <t>2022-09-17T09:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T09:03:50+00:00</t>
+    <t>2022-09-17T13:53:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T13:53:57+00:00</t>
+    <t>2022-09-17T14:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T14:19:17+00:00</t>
+    <t>2022-09-17T23:11:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:11:52+00:00</t>
+    <t>2022-09-17T23:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:36:21+00:00</t>
+    <t>2022-09-17T23:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:49:46+00:00</t>
+    <t>2022-09-17T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:51:36+00:00</t>
+    <t>2022-09-18T01:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T01:43:09+00:00</t>
+    <t>2022-09-18T02:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T02:15:16+00:00</t>
+    <t>2022-09-18T06:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:24:36+00:00</t>
+    <t>2022-09-18T06:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:42:45+00:00</t>
+    <t>2022-09-18T16:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,56 +318,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>periodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
 </t>
   </si>
   <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>usageDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
-</t>
-  </si>
-  <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
-</t>
-  </si>
-  <si>
-    <t>指示ライン</t>
-  </si>
-  <si>
-    <t>指示ラインを格納する拡張</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
-</t>
-  </si>
-  <si>
-    <t>投与装置</t>
-  </si>
-  <si>
-    <t>投与装置を格納する拡張</t>
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
     <t>Dosage.modifierExtension</t>
@@ -572,40 +533,26 @@
     <t>RXR-1</t>
   </si>
   <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
+    <t>Dosage.route.id</t>
+  </si>
+  <si>
+    <t>Dosage.route.extension</t>
+  </si>
+  <si>
+    <t>routeComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
+</t>
+  </si>
+  <si>
+    <t>投与経路コメント</t>
+  </si>
+  <si>
+    <t>投与経路コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.route.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -624,19 +571,92 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Dosage.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>methodComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
+</t>
+  </si>
+  <si>
+    <t>手技コメント</t>
+  </si>
+  <si>
+    <t>手技コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -799,15 +819,6 @@
   </si>
   <si>
     <t>Dosage.method.text</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Dosage.doseAndRate</t>
@@ -897,10 +908,79 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].extension</t>
+  </si>
+  <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
   </si>
   <si>
     <t>rateRange</t>
@@ -930,13 +1010,204 @@
     <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
-    <t>rateQuantity</t>
+    <t>Dosage.doseAndRate.rate[x].low</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
+    <t>時間範囲（下限）</t>
+  </si>
+  <si>
+    <t>The low limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Range.low</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>NR.1</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high</t>
+  </si>
+  <si>
+    <t>時間範囲（上限）</t>
+  </si>
+  <si>
+    <t>The high limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the high element is missing, the high boundary is not known.</t>
+  </si>
+  <si>
+    <t>Range.high</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>NR.2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.comparator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.system</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.code</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
     <t>投与速度(量/時間)を指定する</t>
   </si>
   <si>
@@ -951,6 +1222,36 @@
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].comparator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].code</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1302,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,8 +1612,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1789,7 +2090,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1881,41 +2182,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="2">
         <v>103</v>
       </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O6" t="s" s="2">
         <v>74</v>
       </c>
@@ -1963,7 +2266,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1978,7 +2281,7 @@
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1986,11 +2289,9 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>74</v>
       </c>
@@ -1999,7 +2300,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2008,19 +2309,23 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
       </c>
@@ -2068,34 +2373,32 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>74</v>
       </c>
@@ -2104,7 +2407,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -2113,19 +2416,23 @@
         <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
       </c>
@@ -2173,34 +2480,34 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2213,25 +2520,25 @@
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2256,13 +2563,11 @@
         <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>74</v>
@@ -2280,7 +2585,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2292,18 +2597,18 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2323,23 +2628,21 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2387,7 +2690,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2402,15 +2705,15 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2430,22 +2733,22 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2494,7 +2797,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2509,15 +2812,15 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2528,7 +2831,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2537,23 +2840,21 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2577,11 +2878,13 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2599,13 +2902,13 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -2614,15 +2917,15 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2642,21 +2945,23 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2680,13 +2985,11 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2704,7 +3007,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2719,15 +3022,15 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2747,22 +3050,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2787,13 +3090,11 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2811,7 +3112,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2826,15 +3127,15 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2854,20 +3155,18 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2916,7 +3215,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2928,29 +3227,29 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2959,23 +3258,21 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2999,54 +3296,58 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3055,7 +3356,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3064,23 +3365,19 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3104,11 +3401,13 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3126,30 +3425,30 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3160,7 +3459,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3169,22 +3468,22 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3209,13 +3508,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3239,7 +3538,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3248,15 +3547,15 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3276,19 +3575,23 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3336,7 +3639,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3348,29 +3651,29 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3379,21 +3682,23 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3417,54 +3722,54 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3475,7 +3780,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3484,23 +3789,19 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3536,53 +3837,53 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3591,23 +3892,21 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3631,29 +3930,31 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3665,20 +3966,22 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3687,7 +3990,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3699,13 +4002,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3756,22 +4059,22 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3779,11 +4082,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3799,21 +4102,23 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3849,11 +4154,9 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3861,7 +4164,7 @@
         <v>96</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3873,26 +4176,28 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -3904,29 +4209,29 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>74</v>
@@ -3944,13 +4249,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -3968,13 +4271,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3983,15 +4286,15 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4011,20 +4314,18 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4073,7 +4374,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4085,29 +4386,29 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4116,21 +4417,21 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4166,42 +4467,42 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4209,7 +4510,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
@@ -4221,27 +4522,29 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4283,7 +4586,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4298,15 +4601,15 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4326,23 +4629,21 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4390,7 +4691,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4405,19 +4706,17 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4435,22 +4734,20 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4475,11 +4772,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4497,13 +4796,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4512,15 +4811,15 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4540,19 +4839,21 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4600,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4612,29 +4913,29 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -4643,21 +4944,23 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4693,50 +4996,52 @@
         <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>82</v>
@@ -4748,29 +5053,29 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
@@ -4788,13 +5093,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -4812,13 +5115,13 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -4827,15 +5130,15 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4855,20 +5158,18 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -4917,7 +5218,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4929,29 +5230,29 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -4960,21 +5261,21 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5010,42 +5311,42 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5053,7 +5354,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
@@ -5065,27 +5366,29 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>74</v>
@@ -5127,7 +5430,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5142,15 +5445,15 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5170,23 +5473,21 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5234,7 +5535,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5249,15 +5550,15 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5277,22 +5578,20 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5341,7 +5640,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5356,15 +5655,15 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5375,7 +5674,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5384,19 +5683,21 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5444,13 +5745,13 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5459,15 +5760,15 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5487,19 +5788,23 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5547,7 +5852,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5559,29 +5864,29 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -5590,21 +5895,23 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5640,42 +5947,42 @@
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5686,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -5695,23 +6002,19 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5735,11 +6038,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -5757,13 +6062,13 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5775,12 +6080,12 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5800,23 +6105,19 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5864,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -5876,29 +6177,29 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -5907,23 +6208,21 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -5959,9 +6258,11 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
@@ -5969,34 +6270,32 @@
         <v>96</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6014,22 +6313,22 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6054,13 +6353,11 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6078,7 +6375,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6087,25 +6384,23 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6123,22 +6418,22 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6187,7 +6482,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6196,21 +6491,21 @@
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6230,22 +6525,22 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6282,19 +6577,17 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6303,23 +6596,25 @@
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6337,22 +6632,22 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6401,7 +6696,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6410,21 +6705,21 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6447,20 +6742,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6508,25 +6799,3817 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AI49" t="s" s="2">
+      <c r="K54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="K57" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>300</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Q62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X72" s="2"/>
+      <c r="Y72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X73" s="2"/>
+      <c r="Y73" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T16:20:57+00:00</t>
+    <t>2022-09-19T06:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -246,10 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -447,10 +444,7 @@
 </t>
   </si>
   <si>
-    <t>A timing schedule that specifies an event that may occur multiple times</t>
-  </si>
-  <si>
-    <t>Specifies an event that may occur multiple times. Timing schedules are used to record when things are planned, expected or requested to occur. The most common usage is in dosage instructions for medications. They are also used when planning care of various kinds, and may be used for reporting the schedule to which past regular activities were carried out.</t>
+    <t>投与日時</t>
   </si>
   <si>
     <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
@@ -841,6 +835,19 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -908,79 +915,10 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXE22, RXE23, RXE-24</t>
-  </si>
-  <si>
-    <t>rateRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
   </si>
   <si>
     <t>rateRange</t>
@@ -993,7 +931,7 @@
     <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1010,204 +948,13 @@
     <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
-    <t>Dosage.doseAndRate.rate[x].low</t>
+    <t>rateQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>時間範囲（下限）</t>
-  </si>
-  <si>
-    <t>The low limit. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Range.low</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>NR.1</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].low.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high</t>
-  </si>
-  <si>
-    <t>時間範囲（上限）</t>
-  </si>
-  <si>
-    <t>The high limit. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the high element is missing, the high boundary is not known.</t>
-  </si>
-  <si>
-    <t>Range.high</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>NR.2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.value</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.comparator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.unit</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.system</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].high.code</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
     <t>投与速度(量/時間)を指定する</t>
   </si>
   <si>
@@ -1222,36 +969,6 @@
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].value</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].comparator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].code</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1603,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK85"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1612,7 +1329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.3828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1622,7 +1339,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1795,7 +1512,7 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1858,10 +1575,10 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>74</v>
@@ -1869,7 +1586,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1880,25 +1597,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1949,22 +1666,22 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>74</v>
@@ -1972,11 +1689,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1995,16 +1712,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -2042,19 +1759,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -2066,10 +1783,10 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2077,10 +1794,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -2102,13 +1819,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2159,7 +1876,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2171,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -2182,11 +1899,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2199,25 +1916,25 @@
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>74</v>
@@ -2266,7 +1983,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2278,10 +1995,10 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2289,7 +2006,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2300,7 +2017,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2309,22 +2026,22 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
@@ -2373,30 +2090,30 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2407,31 +2124,31 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
@@ -2480,30 +2197,30 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2523,22 +2240,22 @@
         <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2563,11 +2280,11 @@
         <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>74</v>
@@ -2585,7 +2302,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2597,18 +2314,18 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2619,28 +2336,28 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2690,30 +2407,30 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2724,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2736,19 +2453,19 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2797,30 +2514,30 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2831,7 +2548,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2840,19 +2557,19 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2902,30 +2619,30 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2936,7 +2653,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2945,22 +2662,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -2985,52 +2702,52 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3041,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3050,22 +2767,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3090,52 +2807,52 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3146,25 +2863,25 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s" s="2">
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3215,22 +2932,22 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3238,11 +2955,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3261,16 +2978,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3308,19 +3025,19 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3332,10 +3049,10 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3343,10 +3060,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
@@ -3368,13 +3085,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3425,7 +3142,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3437,7 +3154,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3165,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3468,22 +3185,22 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3532,7 +3249,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3544,18 +3261,18 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3566,31 +3283,31 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3639,30 +3356,30 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3673,7 +3390,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3682,22 +3399,22 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3722,54 +3439,54 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3780,25 +3497,25 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s" s="2">
+      <c r="K21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3849,22 +3566,22 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3872,11 +3589,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3895,16 +3612,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3942,19 +3659,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3966,10 +3683,10 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3977,10 +3694,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
@@ -4002,13 +3719,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4059,7 +3776,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4071,7 +3788,7 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
@@ -4082,7 +3799,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4102,22 +3819,22 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4154,17 +3871,17 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4176,21 +3893,21 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
@@ -4200,7 +3917,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4209,22 +3926,22 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4249,11 +3966,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4271,7 +3988,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4283,18 +4000,18 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4305,25 +4022,25 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s" s="2">
+      <c r="K26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4374,22 +4091,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4397,11 +4114,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4420,16 +4137,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4467,19 +4184,19 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB27" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4491,10 +4208,10 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4502,7 +4219,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4510,10 +4227,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4522,94 +4239,94 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4620,28 +4337,28 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4691,30 +4408,30 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4725,7 +4442,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4734,20 +4451,20 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4796,30 +4513,30 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4830,29 +4547,29 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -4901,30 +4618,30 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4935,7 +4652,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -4944,22 +4661,22 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5008,33 +4725,33 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>74</v>
@@ -5044,7 +4761,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -5053,22 +4770,22 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5093,11 +4810,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5115,7 +4832,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5127,18 +4844,18 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5149,25 +4866,25 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
+      <c r="K34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5218,22 +4935,22 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5241,11 +4958,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5264,16 +4981,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5311,19 +5028,19 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB35" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5335,10 +5052,10 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5346,7 +5063,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5354,10 +5071,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5366,29 +5083,29 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>74</v>
@@ -5430,30 +5147,30 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5464,28 +5181,28 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5535,30 +5252,30 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5569,7 +5286,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5578,20 +5295,20 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5640,30 +5357,30 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5674,29 +5391,29 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5745,30 +5462,30 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5779,7 +5496,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -5788,22 +5505,22 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5852,30 +5569,30 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5886,31 +5603,31 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K41" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5959,30 +5676,30 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6002,16 +5719,16 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6062,7 +5779,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6074,18 +5791,18 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6096,25 +5813,25 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s" s="2">
+      <c r="K43" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6165,22 +5882,22 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6188,11 +5905,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6211,16 +5928,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6258,19 +5975,19 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB44" t="s" s="2">
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
+      <c r="AE44" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6282,10 +5999,10 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6293,9 +6010,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6304,7 +6023,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6313,23 +6032,19 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6353,11 +6068,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6375,30 +6092,30 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6409,7 +6126,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6418,22 +6135,22 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6458,13 +6175,11 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6482,30 +6197,30 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6516,7 +6231,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6525,22 +6240,22 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6577,44 +6292,44 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6623,7 +6338,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6632,22 +6347,22 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6684,44 +6399,44 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6730,7 +6445,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6742,16 +6457,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6799,41 +6518,43 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>86</v>
+        <v>283</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="C50" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -6845,18 +6566,20 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6892,46 +6615,44 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>74</v>
       </c>
@@ -6940,7 +6661,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -6952,16 +6673,20 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7009,30 +6734,30 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7043,7 +6768,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7052,19 +6777,23 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7112,30 +6841,30 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7146,7 +6875,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7155,19 +6884,23 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7215,3401 +6948,25 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X64" s="2"/>
-      <c r="Y64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X65" s="2"/>
-      <c r="Y65" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X73" s="2"/>
-      <c r="Y73" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Q79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T06:50:03+00:00</t>
+    <t>2022-09-19T07:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:12:17+00:00</t>
+    <t>2022-09-19T07:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:34:45+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -871,23 +871,34 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
-    <t>RXO-2, RXE-3</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -911,64 +922,10 @@
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXE22, RXE23, RXE-24</t>
-  </si>
-  <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
-</t>
-  </si>
-  <si>
-    <t>範囲指定された時間の上限下限</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>投与速度(量/時間)を指定する</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1320,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6240,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>277</v>
@@ -6313,21 +6270,21 @@
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6350,19 +6307,19 @@
         <v>104</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6399,17 +6356,19 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6424,19 +6383,17 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6457,19 +6414,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6518,7 +6475,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6527,25 +6484,23 @@
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>299</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6566,19 +6521,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6627,7 +6582,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6636,21 +6591,21 @@
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6673,19 +6628,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -6734,7 +6689,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6743,230 +6698,16 @@
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="309">
   <si>
     <t>Property</t>
   </si>
@@ -935,7 +935,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量</t>
+    <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -958,7 +958,7 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+    <t>1回あたりの投薬量の上限</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -968,6 +968,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>生涯の投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
@@ -6631,16 +6634,16 @@
         <v>302</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>304</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -391,7 +391,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>RXO-6; RXE-21</t>
@@ -511,7 +511,7 @@
     <t>投与経路</t>
   </si>
   <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+    <t>投与経路の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -856,7 +856,7 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>投与速度・量の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルは薬剤用のDosageベースとして基礎となる制約と拡張のうち共通部分を定めている。</t>
+    <t>このデータタイプは薬剤用法のDosageベースとして基礎となる制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -315,19 +315,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>dosageComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
-</t>
-  </si>
-  <si>
-    <t>用法コメント</t>
-  </si>
-  <si>
-    <t>用法コメントを格納するための拡張</t>
-  </si>
-  <si>
     <t>Dosage.modifierExtension</t>
   </si>
   <si>
@@ -527,26 +514,40 @@
     <t>RXR-1</t>
   </si>
   <si>
-    <t>Dosage.route.id</t>
-  </si>
-  <si>
-    <t>Dosage.route.extension</t>
-  </si>
-  <si>
-    <t>routeComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
-</t>
-  </si>
-  <si>
-    <t>投与経路コメント</t>
-  </si>
-  <si>
-    <t>投与経路コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.route.coding</t>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -565,92 +566,19 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Dosage.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>methodComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
-</t>
-  </si>
-  <si>
-    <t>手技コメント</t>
-  </si>
-  <si>
-    <t>手技コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -815,6 +743,15 @@
     <t>Dosage.method.text</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate</t>
   </si>
   <si>
@@ -835,19 +772,6 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -1280,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1290,7 +1214,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1754,13 +1678,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>98</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1773,22 +1695,26 @@
         <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1836,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1851,7 +1777,7 @@
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1859,42 +1785,42 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>74</v>
@@ -1943,30 +1869,30 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1986,22 +1912,22 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
@@ -2050,7 +1976,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2065,15 +1991,15 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2084,7 +2010,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -2093,22 +2019,22 @@
         <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
@@ -2133,13 +2059,11 @@
         <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>74</v>
@@ -2157,13 +2081,13 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -2172,15 +2096,15 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2191,7 +2115,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -2200,23 +2124,21 @@
         <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
       </c>
@@ -2240,11 +2162,13 @@
         <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>74</v>
@@ -2262,13 +2186,13 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -2277,10 +2201,10 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -2305,13 +2229,13 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>135</v>
@@ -2319,7 +2243,9 @@
       <c r="M10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2382,15 +2308,15 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2410,23 +2336,21 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2474,7 +2398,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2489,15 +2413,15 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2517,21 +2441,23 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2555,13 +2481,11 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2579,7 +2503,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2594,15 +2518,15 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2622,22 +2546,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -2662,11 +2586,11 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2684,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2699,15 +2623,15 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2727,22 +2651,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2767,11 +2691,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2789,7 +2715,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2804,15 +2730,15 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2915,7 +2841,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3020,11 +2946,9 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3042,19 +2966,23 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3090,19 +3018,17 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3114,20 +3040,22 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3136,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3145,22 +3073,22 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3185,13 +3113,11 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3209,7 +3135,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3224,15 +3150,15 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3252,23 +3178,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3316,7 +3238,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3328,29 +3250,29 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3359,23 +3281,21 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3399,54 +3319,54 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3454,7 +3374,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -3466,25 +3386,29 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
@@ -3526,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3538,29 +3462,29 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3569,19 +3493,19 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3619,46 +3543,44 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3667,7 +3589,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3676,19 +3598,21 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3736,30 +3660,30 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3770,7 +3694,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3779,22 +3703,20 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3831,23 +3753,25 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3856,19 +3780,17 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3886,22 +3808,22 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -3926,11 +3848,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -3948,13 +3872,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3963,17 +3887,19 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3991,19 +3917,23 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4027,13 +3957,11 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4051,41 +3979,41 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4097,17 +4025,15 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4144,31 +4070,31 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>86</v>
@@ -4179,18 +4105,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4199,29 +4125,27 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4251,42 +4175,42 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4294,7 +4218,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>81</v>
@@ -4306,27 +4230,29 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -4368,7 +4294,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4383,15 +4309,15 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4411,21 +4337,21 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4473,7 +4399,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4488,15 +4414,15 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4516,20 +4442,20 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -4578,7 +4504,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4593,15 +4519,15 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4621,22 +4547,20 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4685,7 +4609,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4700,19 +4624,17 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>74</v>
       </c>
@@ -4730,22 +4652,22 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -4770,11 +4692,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -4792,13 +4716,13 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -4807,15 +4731,15 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4835,19 +4759,23 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4895,7 +4823,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4907,22 +4835,22 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4938,20 +4866,18 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -4988,19 +4914,19 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5012,18 +4938,18 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5031,7 +4957,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>81</v>
@@ -5043,29 +4969,25 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>74</v>
@@ -5107,7 +5029,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5119,29 +5041,29 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5150,19 +5072,19 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5200,42 +5122,42 @@
         <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5255,20 +5177,22 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5293,13 +5217,11 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5317,7 +5239,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5332,15 +5254,15 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5360,20 +5282,22 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5422,7 +5346,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5431,21 +5355,21 @@
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5465,22 +5389,22 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5529,7 +5453,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5544,15 +5468,15 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5572,22 +5496,22 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5636,7 +5560,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5645,21 +5569,21 @@
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5670,7 +5594,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -5679,19 +5603,23 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5739,30 +5667,30 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5785,16 +5713,20 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5842,7 +5774,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -5851,866 +5783,16 @@
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X46" s="2"/>
-      <c r="Y46" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -406,7 +406,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -483,7 +483,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -505,7 +505,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -594,7 +594,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -734,7 +734,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -786,7 +786,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1237,7 +1237,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -247,117 +250,117 @@
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Dosage.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Dosage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Dosage.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>服用指示の順番</t>
+  </si>
+  <si>
+    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
+  </si>
+  <si>
+    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
+  </si>
+  <si>
+    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Dosage.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Dosage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Dosage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>服用指示の順番</t>
-  </si>
-  <si>
-    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
-  </si>
-  <si>
-    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
-  </si>
-  <si>
-    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1146,55 +1149,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1254,218 +1257,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1474,23 +1477,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>82</v>
@@ -1504,71 +1507,71 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1581,19 +1584,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>89</v>
@@ -1609,38 +1612,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>93</v>
@@ -1649,7 +1652,7 @@
         <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>95</v>
@@ -1658,13 +1661,13 @@
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
@@ -1673,7 +1676,7 @@
         <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1686,13 +1689,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>100</v>
@@ -1716,62 +1719,62 @@
         <v>103</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
@@ -1780,7 +1783,7 @@
         <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1789,20 +1792,20 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>100</v>
@@ -1823,93 +1826,93 @@
         <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>100</v>
@@ -1918,210 +1921,210 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>100</v>
@@ -2130,185 +2133,185 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>105</v>
@@ -2316,449 +2319,449 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>82</v>
@@ -2772,76 +2775,76 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2849,19 +2852,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
@@ -2877,38 +2880,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>93</v>
@@ -2917,7 +2920,7 @@
         <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>95</v>
@@ -2926,13 +2929,13 @@
         <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>97</v>
@@ -2941,244 +2944,244 @@
         <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>82</v>
@@ -3192,76 +3195,76 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3269,19 +3272,19 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
@@ -3297,38 +3300,38 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>93</v>
@@ -3337,7 +3340,7 @@
         <v>94</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>95</v>
@@ -3346,13 +3349,13 @@
         <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>97</v>
@@ -3361,16 +3364,16 @@
         <v>86</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3380,117 +3383,117 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>100</v>
@@ -3499,208 +3502,208 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>100</v>
@@ -3709,320 +3712,320 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>82</v>
@@ -4036,76 +4039,76 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4113,19 +4116,19 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
@@ -4141,38 +4144,38 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>93</v>
@@ -4181,7 +4184,7 @@
         <v>94</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>95</v>
@@ -4190,13 +4193,13 @@
         <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
@@ -4205,16 +4208,16 @@
         <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4224,117 +4227,117 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>100</v>
@@ -4343,208 +4346,208 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>100</v>
@@ -4553,210 +4556,210 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>100</v>
@@ -4765,211 +4768,211 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>82</v>
@@ -4983,76 +4986,76 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5060,19 +5063,19 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
@@ -5088,38 +5091,38 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>93</v>
@@ -5128,7 +5131,7 @@
         <v>94</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>95</v>
@@ -5137,13 +5140,13 @@
         <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
@@ -5152,430 +5155,430 @@
         <v>86</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>105</v>
@@ -5583,216 +5586,216 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -508,7 +508,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -582,6 +585,9 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1</t>
+  </si>
+  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -600,10 +606,19 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1.id</t>
+  </si>
+  <si>
     <t>Dosage.method.coding.id</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1.extension</t>
+  </si>
+  <si>
     <t>Dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit1.system</t>
   </si>
   <si>
     <t>Dosage.method.coding.system</t>
@@ -637,6 +652,9 @@
     <t>C*E.3</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1.version</t>
+  </si>
+  <si>
     <t>Dosage.method.coding.version</t>
   </si>
   <si>
@@ -656,6 +674,9 @@
   </si>
   <si>
     <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit1.code</t>
   </si>
   <si>
     <t>Dosage.method.coding.code</t>
@@ -683,6 +704,9 @@
     <t>C*E.1</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1.display</t>
+  </si>
+  <si>
     <t>Dosage.method.coding.display</t>
   </si>
   <si>
@@ -704,6 +728,9 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit1.userSelected</t>
+  </si>
+  <si>
     <t>Dosage.method.coding.userSelected</t>
   </si>
   <si>
@@ -728,6 +755,9 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit2</t>
+  </si>
+  <si>
     <t>unitDigit2</t>
   </si>
   <si>
@@ -740,7 +770,28 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
+    <t>Dosage.method.coding:unitDigit2.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.system</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.version</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.code</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.display</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding:unitDigit2.userSelected</t>
   </si>
   <si>
     <t>Dosage.method.text</t>
@@ -1207,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK43"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1216,43 +1267,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.11328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1367,136 +1418,142 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>83</v>
@@ -1504,102 +1561,105 @@
       <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>90</v>
@@ -1610,208 +1670,214 @@
       <c r="M4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>108</v>
@@ -1826,65 +1892,65 @@
         <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>113</v>
@@ -1892,36 +1958,39 @@
       <c r="AK6" t="s" s="2">
         <v>114</v>
       </c>
+      <c r="AL6" t="s" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>117</v>
@@ -1933,99 +2002,102 @@
         <v>119</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>123</v>
@@ -2040,100 +2112,103 @@
         <v>126</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
         <v>128</v>
       </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>132</v>
@@ -2141,107 +2216,110 @@
       <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>137</v>
@@ -2250,99 +2328,102 @@
         <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>142</v>
@@ -2353,104 +2434,107 @@
       <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="AL11" t="s" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>149</v>
@@ -2462,103 +2546,106 @@
         <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>157</v>
@@ -2567,103 +2654,106 @@
         <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="AL13" t="s" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>164</v>
@@ -2672,29 +2762,29 @@
         <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>167</v>
@@ -2703,68 +2793,71 @@
         <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="AL14" t="s" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>83</v>
@@ -2772,102 +2865,105 @@
       <c r="L15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>90</v>
@@ -2878,101 +2974,104 @@
       <c r="M16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>175</v>
@@ -2987,204 +3086,210 @@
         <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="AL17" t="s" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="AL18" t="s" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>83</v>
@@ -3192,102 +3297,105 @@
       <c r="L19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>90</v>
@@ -3298,737 +3406,758 @@
       <c r="M20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>182</v>
       </c>
+      <c r="AL26" t="s" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>83</v>
@@ -4036,102 +4165,105 @@
       <c r="L27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>90</v>
@@ -4142,633 +4274,651 @@
       <c r="M28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>117</v>
@@ -4780,202 +4930,208 @@
         <v>119</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>83</v>
@@ -4983,102 +5139,105 @@
       <c r="L36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>90</v>
@@ -5089,713 +5248,734 @@
       <c r="M37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>105</v>
+        <v>294</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -1450,13 +1454,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1522,7 +1526,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1530,10 +1534,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1544,7 +1548,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1556,13 +1560,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1613,13 +1617,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1628,7 +1632,7 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -1636,14 +1640,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1662,16 +1666,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1709,19 +1713,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1733,10 +1737,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -1744,14 +1748,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1764,25 +1768,25 @@
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1831,7 +1835,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1843,10 +1847,10 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>76</v>
@@ -1854,10 +1858,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1868,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1877,22 +1881,22 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>76</v>
@@ -1941,33 +1945,33 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1978,7 +1982,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1987,22 +1991,22 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -2051,33 +2055,33 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2097,22 +2101,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2137,11 +2141,11 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2159,7 +2163,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2171,21 +2175,21 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2196,7 +2200,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2205,19 +2209,19 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2267,33 +2271,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2304,7 +2308,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2316,19 +2320,19 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2377,33 +2381,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2414,7 +2418,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2423,19 +2427,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2485,33 +2489,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2522,7 +2526,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2531,22 +2535,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2571,11 +2575,11 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2593,33 +2597,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2630,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2639,22 +2643,22 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2679,11 +2683,11 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2701,33 +2705,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2738,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2747,22 +2751,22 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2787,13 +2791,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2811,33 +2815,33 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2848,7 +2852,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2860,13 +2864,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2917,13 +2921,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -2932,7 +2936,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2940,14 +2944,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2966,16 +2970,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3013,19 +3017,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3037,10 +3041,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3048,10 +3052,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3071,22 +3075,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3123,17 +3127,17 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3145,24 +3149,24 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -3172,7 +3176,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3181,22 +3185,22 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3221,11 +3225,11 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3243,7 +3247,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3255,21 +3259,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3280,7 +3284,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3292,13 +3296,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3349,13 +3353,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3364,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3372,14 +3376,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3398,16 +3402,16 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3445,19 +3449,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3469,10 +3473,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3480,10 +3484,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3491,10 +3495,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3503,29 +3507,29 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -3567,33 +3571,33 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3604,7 +3608,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3613,19 +3617,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3675,33 +3679,33 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3712,7 +3716,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3721,20 +3725,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3783,33 +3787,33 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3820,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3829,20 +3833,20 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3891,33 +3895,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3928,7 +3932,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3937,22 +3941,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4001,36 +4005,36 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
@@ -4040,7 +4044,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4049,22 +4053,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4089,11 +4093,11 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4111,7 +4115,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4123,21 +4127,21 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4148,7 +4152,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4160,13 +4164,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4217,13 +4221,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4232,7 +4236,7 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4240,14 +4244,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4266,16 +4270,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4313,19 +4317,19 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4337,10 +4341,10 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4348,10 +4352,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4359,10 +4363,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4371,29 +4375,29 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>76</v>
@@ -4435,33 +4439,33 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4472,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4481,19 +4485,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4543,33 +4547,33 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4580,7 +4584,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4589,20 +4593,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4651,33 +4655,33 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4688,7 +4692,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4697,20 +4701,20 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4759,33 +4763,33 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4796,7 +4800,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4805,22 +4809,22 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4869,33 +4873,33 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4906,7 +4910,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -4915,22 +4919,22 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -4979,33 +4983,33 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5025,16 +5029,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5085,7 +5089,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5097,21 +5101,21 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5122,7 +5126,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5134,13 +5138,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5191,13 +5195,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5206,7 +5210,7 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5214,14 +5218,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5240,16 +5244,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5287,19 +5291,19 @@
         <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5311,10 +5315,10 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5322,10 +5326,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5336,7 +5340,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5345,22 +5349,22 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5385,11 +5389,11 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5407,33 +5411,33 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5444,7 +5448,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5456,19 +5460,19 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5517,33 +5521,33 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5563,22 +5567,22 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5627,33 +5631,33 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5664,7 +5668,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5676,19 +5680,19 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5737,33 +5741,33 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5774,7 +5778,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -5786,19 +5790,19 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -5847,33 +5851,33 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5884,7 +5888,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -5896,19 +5900,19 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -5957,25 +5961,25 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -1454,13 +1450,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1526,7 +1522,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -1534,10 +1530,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1548,25 +1544,25 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1617,22 +1613,22 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -1640,14 +1636,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1666,16 +1662,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1713,19 +1709,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1737,10 +1733,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -1748,14 +1744,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1768,25 +1764,25 @@
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1835,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1847,10 +1843,10 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>76</v>
@@ -1858,10 +1854,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1872,7 +1868,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1881,22 +1877,22 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>76</v>
@@ -1945,33 +1941,33 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1982,31 +1978,31 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -2055,33 +2051,33 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2101,22 +2097,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2141,11 +2137,11 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2163,7 +2159,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2175,21 +2171,21 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK8" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2200,28 +2196,28 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2271,33 +2267,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK9" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2308,7 +2304,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2320,19 +2316,19 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2381,33 +2377,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2418,7 +2414,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2427,19 +2423,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2489,33 +2485,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2526,7 +2522,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2535,22 +2531,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2575,55 +2571,55 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2634,7 +2630,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2643,22 +2639,22 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2683,55 +2679,55 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2742,7 +2738,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2751,22 +2747,22 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2791,57 +2787,57 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2852,25 +2848,25 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2921,22 +2917,22 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2944,14 +2940,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2970,16 +2966,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3017,19 +3013,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3041,10 +3037,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3052,10 +3048,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3075,22 +3071,22 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3127,17 +3123,17 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3149,24 +3145,24 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -3176,7 +3172,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3185,22 +3181,22 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3225,11 +3221,11 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3247,7 +3243,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3259,21 +3255,21 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3284,25 +3280,25 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3353,22 +3349,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3376,14 +3372,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3402,16 +3398,16 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3449,19 +3445,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3473,10 +3469,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3484,10 +3480,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3495,10 +3491,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3507,97 +3503,97 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3608,28 +3604,28 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3679,33 +3675,33 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3716,7 +3712,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3725,20 +3721,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3787,33 +3783,33 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3824,29 +3820,29 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3895,33 +3891,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3932,7 +3928,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3941,22 +3937,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4005,36 +4001,36 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
@@ -4044,7 +4040,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4053,22 +4049,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="N26" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4093,11 +4089,11 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4115,7 +4111,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4127,21 +4123,21 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4152,25 +4148,25 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4221,22 +4217,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4244,14 +4240,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4270,16 +4266,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4317,19 +4313,19 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC28" t="s" s="2">
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4341,10 +4337,10 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4352,10 +4348,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4363,10 +4359,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4375,29 +4371,29 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>76</v>
@@ -4439,33 +4435,33 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4476,28 +4472,28 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4547,33 +4543,33 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4584,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4593,20 +4589,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4655,33 +4651,33 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4692,29 +4688,29 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4763,33 +4759,33 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4800,7 +4796,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4809,22 +4805,22 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4873,33 +4869,33 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4910,31 +4906,31 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L34" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -4983,33 +4979,33 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5029,16 +5025,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5089,7 +5085,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5101,21 +5097,21 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5126,25 +5122,25 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5195,22 +5191,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5218,14 +5214,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5244,16 +5240,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5291,19 +5287,19 @@
         <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5315,10 +5311,10 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5326,10 +5322,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5340,7 +5336,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5349,22 +5345,22 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5389,55 +5385,55 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5448,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5460,19 +5456,19 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5521,33 +5517,33 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5558,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5567,22 +5563,22 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5631,33 +5627,33 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5668,7 +5664,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5680,19 +5676,19 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5741,33 +5737,33 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5778,7 +5774,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -5790,19 +5786,19 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -5851,33 +5847,33 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5888,7 +5884,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -5900,19 +5896,19 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -5961,25 +5957,25 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -272,10 +272,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -317,8 +317,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Dosage.modifierExtension</t>
@@ -331,14 +331,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -366,7 +367,7 @@
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -444,11 +445,12 @@
     <t>投与日時</t>
   </si>
   <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
+    <t>複数回発生する可能性のあるイベントの発生について説明します。タイミングスケジュールは、イベントが発生することが予想または要求される時期を指定するために使用され、過去または進行中のイベントの概要を表すためにも使用できます。簡単にするために、タイミングコンポーネントの定義は「将来の」イベントとして表現されますが、そのようなコンポーネントは歴史的または進行中のイベントを説明するためにも使用できます。
+タイミングスケジュールは、イベントが発生したときのイベントおよび/または基準のリストであり、構造化された形式またはコードとして表現できます。イベントと繰り返し仕様の両方が提供される場合、イベントのリストは、繰り返し構造の情報の解釈として理解されるべきです。 / Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬を与えるためのタイミングスケジュール。このデータ型により、さまざまな式が可能になります。たとえば、「8時間ごと」。"一日に三回";「2011年12月23日から10日間の朝食の1/2の1/2：」;「2013年10月15日、2013年10月17日、2013年11月1日」。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>QSET&lt;TS&gt; (GTS)</t>
@@ -468,7 +470,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
@@ -490,7 +492,7 @@
 【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
@@ -512,7 +514,7 @@
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+    <t>患者の体への、または患者の体内への治療剤の投与のルートまたは生理学的経路を指定するコード。 / A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
@@ -539,7 +541,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -564,16 +566,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -632,16 +634,16 @@
 </t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -662,13 +664,13 @@
     <t>Dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -690,13 +692,13 @@
 </t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -714,13 +716,13 @@
     <t>Dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -738,16 +740,16 @@
     <t>Dosage.method.coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -857,24 +859,24 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -896,12 +898,14 @@
     <t>薬剤が投与される量の速度</t>
   </si>
   <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.+    <t>レートとデスケーティティの両方を供給して、薬の投与と供給の方法についての詳細を提供することができます。レートが時間の経過とともに変化することを目的としている場合、ローカルのルール/規制に応じて、各変更は、更新されたレートのある薬物療法の新しいバージョンとしてキャプチャするか、新しいレートで新しい薬物採取でキャプチャされる必要があります。++レート（100 ml/hour）を使用して、時間の経過とともにレートを指定することができます。RateQuantityアプローチでは、時間が分母として指定されている特定の比率ではなく、ML/時間が含まれているUCUMグラマーを解析する機能をシステムに持つ必要があります。2時間にわたって500mlなどのレートが指定されている場合、250 mg/時のレートの量を使用して指定するよりも、定量的に正しい場合があります。 / It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.  It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -920,14 +924,14 @@
     <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>期間にわたって被験者に投与される可能性のある治療物質の最大総量。たとえば、24時間で1000mg。 / The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -946,7 +950,7 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+    <t>投与ごとの被験者に投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -955,7 +959,7 @@
     <t>生涯の投薬量の上限</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+    <t>被験者の寿命ごとに投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1299,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1081,10 +967,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1266,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1277,13 +1163,12 @@
   <cols>
     <col min="1" max="1" width="44.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1291,4699 +1176,4583 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
+      <c r="AL1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG6" t="s" s="2">
+      <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL6" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG7" t="s" s="2">
+      <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG8" t="s" s="2">
+      <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>288</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -967,10 +1081,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1163,12 +1277,13 @@
   <cols>
     <col min="1" max="1" width="44.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1176,4583 +1291,4699 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="G1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>69</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>242</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -145,6 +145,10 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -251,10 +255,6 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>.text</t>
@@ -1296,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1321,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1333,13 +1333,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1390,13 +1390,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1405,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -1413,14 +1413,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1439,16 +1439,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1486,19 +1486,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1510,10 +1510,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -1521,14 +1521,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1541,25 +1541,25 @@
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s" s="2">
         <v>38</v>
@@ -1608,7 +1608,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1620,10 +1620,10 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1645,7 +1645,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1654,22 +1654,22 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1718,19 +1718,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1764,10 +1764,10 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>80</v>
@@ -1834,13 +1834,13 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -1874,7 +1874,7 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>86</v>
@@ -1948,7 +1948,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -1973,7 +1973,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -1982,10 +1982,10 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>95</v>
@@ -2050,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2160,19 +2160,19 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2191,7 +2191,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2200,7 +2200,7 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>105</v>
@@ -2268,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>109</v>
@@ -2299,7 +2299,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2308,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>86</v>
@@ -2376,13 +2376,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>117</v>
@@ -2407,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2416,7 +2416,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>86</v>
@@ -2484,13 +2484,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>124</v>
@@ -2515,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2524,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>86</v>
@@ -2594,13 +2594,13 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>133</v>
@@ -2625,7 +2625,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2637,13 +2637,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2694,13 +2694,13 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -2709,7 +2709,7 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2743,16 +2743,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2790,19 +2790,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2814,10 +2814,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2848,7 +2848,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>138</v>
@@ -2907,7 +2907,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>144</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>145</v>
@@ -2949,7 +2949,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2958,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>138</v>
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>145</v>
@@ -3057,7 +3057,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3069,13 +3069,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3126,13 +3126,13 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -3141,7 +3141,7 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3175,16 +3175,16 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3222,19 +3222,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3246,10 +3246,10 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3268,10 +3268,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3280,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>160</v>
@@ -3350,13 +3350,13 @@
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>167</v>
@@ -3381,7 +3381,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3390,10 +3390,10 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>171</v>
@@ -3458,13 +3458,13 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>175</v>
@@ -3489,7 +3489,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3498,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>179</v>
@@ -3566,13 +3566,13 @@
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>184</v>
@@ -3597,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3606,10 +3606,10 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>188</v>
@@ -3674,13 +3674,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>192</v>
@@ -3705,7 +3705,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3714,7 +3714,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>105</v>
@@ -3784,13 +3784,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>201</v>
@@ -3817,7 +3817,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3826,7 +3826,7 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>138</v>
@@ -3900,7 +3900,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>145</v>
@@ -3925,7 +3925,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -3937,13 +3937,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3994,13 +3994,13 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
@@ -4009,7 +4009,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4043,16 +4043,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4090,19 +4090,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4114,10 +4114,10 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>160</v>
@@ -4218,13 +4218,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>167</v>
@@ -4249,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4258,10 +4258,10 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>171</v>
@@ -4326,13 +4326,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>175</v>
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4366,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>179</v>
@@ -4434,13 +4434,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>184</v>
@@ -4465,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4474,10 +4474,10 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>188</v>
@@ -4542,13 +4542,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>192</v>
@@ -4573,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4582,7 +4582,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>105</v>
@@ -4652,13 +4652,13 @@
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>201</v>
@@ -4683,7 +4683,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4692,10 +4692,10 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>80</v>
@@ -4762,13 +4762,13 @@
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>218</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>221</v>
@@ -4874,7 +4874,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4899,7 +4899,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -4911,13 +4911,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4968,13 +4968,13 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
@@ -4983,7 +4983,7 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5017,16 +5017,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5064,19 +5064,19 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5088,10 +5088,10 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5113,7 +5113,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5122,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>86</v>
@@ -5190,13 +5190,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5300,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>239</v>
@@ -5331,7 +5331,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5340,7 +5340,7 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>244</v>
@@ -5410,13 +5410,13 @@
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>249</v>
@@ -5441,7 +5441,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -5520,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>239</v>
@@ -5532,7 +5532,7 @@
         <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -5551,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -5630,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>239</v>
@@ -5661,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -5740,7 +5740,7 @@
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>239</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -352,7 +352,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。  
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1152,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1163,12 +1277,13 @@
   <cols>
     <col min="1" max="1" width="44.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1176,4583 +1291,4699 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="H1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>70</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>242</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1266,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1277,13 +1163,12 @@
   <cols>
     <col min="1" max="1" width="44.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1291,4699 +1176,4583 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
+      <c r="AL1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z8" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>288</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
